--- a/Excel Lab.xlsx
+++ b/Excel Lab.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keria\OneDrive\Bureau\Important (School Stuff)\Computer Science\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keria\Excel-Lab\Excel-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CE8D05-3EBF-4F77-8421-8843CD4E3F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202A28ED-8DA4-4571-9105-42C7B632D025}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Software dev.</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>% of jobs in MTL</t>
+  </si>
+  <si>
+    <t>Jobs</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -215,7 +221,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -223,6 +229,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
@@ -232,7 +241,193 @@
     <cellStyle name="Output" xfId="2" builtinId="21"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="double">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="double">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top style="double">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom style="double">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -243,6 +438,1578 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>IT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> jobs in Canada</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11183439805873323"/>
+          <c:y val="0.15025702451262635"/>
+          <c:w val="0.8630083692368643"/>
+          <c:h val="0.55630407841998908"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average salary/Year</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Software dev.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Software architect</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Front end dev.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Java dev.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Software engineer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Full stack dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>.NET dev.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Web dev.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Systems admin.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>74092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102713</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76836</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80157</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61710</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B27E-44A4-B692-BF2F19B0CECE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Software dev.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Software architect</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Front end dev.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Java dev.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Software engineer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Full stack dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>.NET dev.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Web dev.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Systems admin.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B27E-44A4-B692-BF2F19B0CECE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nb. Jobs in Canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Software dev.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Software architect</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Front end dev.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Java dev.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Software engineer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Full stack dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>.NET dev.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Web dev.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Systems admin.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B27E-44A4-B692-BF2F19B0CECE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nb. Jobs in Montreal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Software dev.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Software architect</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Front end dev.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Java dev.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Software engineer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Full stack dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>.NET dev.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Web dev.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Systems admin.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B27E-44A4-B692-BF2F19B0CECE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg. Salary/month</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Software dev.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Software architect</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Front end dev.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Java dev.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Software engineer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Full stack dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>.NET dev.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Web dev.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Systems admin.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6174.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8559.4166666666661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6502.083333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7026.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6679.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6637</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5142.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5506.416666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B27E-44A4-B692-BF2F19B0CECE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:shape val="box"/>
+        <c:axId val="311529615"/>
+        <c:axId val="300636927"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="311529615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="300636927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="300636927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311529615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>26193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>89297</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4DC0A78-FBB2-41E5-9CE7-705D5A72D306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>13096</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>99417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>511968</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374E7B31-30F5-403F-AE6D-26AE206E703F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096" y="5945386"/>
+          <a:ext cx="5434013" cy="1281708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="800"/>
+            <a:t>Average salary/year: It is the average</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="800" baseline="0"/>
+            <a:t> salary per year that the specific job would give you according to the gouvernment of Canada</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="800" baseline="0"/>
+            <a:t>Demand: Is if the are many people seeking to work in that job</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="800" baseline="0"/>
+            <a:t>Nb. Jobs in Canada: The amount of jobs for that category that are in Canada according to the gouvernment of Canada</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="800" baseline="0"/>
+            <a:t>Nb. Jobs in Montreal: The amount of jobs for that category that are in Montreal according to other sources</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="800" baseline="0"/>
+            <a:t>Avg. Salary/month: A calculation of how much you should be making every month for that job</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="800"/>
+            <a:t>% of jobs in MTL: The</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="800" baseline="0"/>
+            <a:t> percentage of jobs that are in Montreal in relation with the number of jobs in canada</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="800" baseline="0"/>
+            <a:t>Conclusion: IT jobs are high paying but in very high demand. Although there are plenty of jobs to be able to get in easily with the right education and experience.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B42ECBA-3450-4100-9656-DC153F143554}" name="Table1" displayName="Table1" ref="A2:G12" totalsRowCount="1" headerRowCellStyle="Check Cell" dataCellStyle="60% - Accent3">
+  <autoFilter ref="A2:G11" xr:uid="{E377FCD6-1534-409B-84C8-89C97518AD67}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{38902AC2-6EB9-45C7-B48D-DA0B5D4C62C1}" name="Jobs" totalsRowLabel="Total" totalsRowDxfId="6" dataCellStyle="Check Cell"/>
+    <tableColumn id="2" xr3:uid="{ED86A4C3-B542-4EB3-A61F-B3199A459967}" name="Average salary/Year" dataDxfId="7" totalsRowDxfId="5" dataCellStyle="60% - Accent3"/>
+    <tableColumn id="3" xr3:uid="{0A83E324-55C9-4EEC-8528-86B71E6E85E6}" name="Demand" totalsRowDxfId="4" dataCellStyle="60% - Accent3"/>
+    <tableColumn id="4" xr3:uid="{5E2805FF-8554-4D6C-B949-97526660DA34}" name="Nb. Jobs in Canada" totalsRowFunction="custom" totalsRowDxfId="3" dataCellStyle="60% - Accent3">
+      <totalsRowFormula>D3+D4+D5+D6+D7+D8+D9+D10+D11</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4A6BA471-0100-4DBB-A337-7C32AE14FDC4}" name="Nb. Jobs in Montreal" totalsRowFunction="custom" totalsRowDxfId="2" dataCellStyle="60% - Accent3">
+      <totalsRowFormula>E3+E4+E5+E6+E7+E8+E9+E10+E11</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{E47F7F9A-5F91-4C68-B9EC-471CC2EF5F38}" name="Avg. Salary/month" totalsRowDxfId="1" dataCellStyle="60% - Accent3">
+      <calculatedColumnFormula>B3/12</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{0CAA6130-3331-4FBC-9553-F38AA16E46C7}" name="% of jobs in MTL" totalsRowDxfId="0" dataCellStyle="20% - Accent3">
+      <calculatedColumnFormula>E3/D3*100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,16 +2275,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="7" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -526,6 +2297,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -562,7 +2336,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="6">
-        <f>B3/12</f>
+        <f t="shared" ref="F3:F11" si="0">B3/12</f>
         <v>6174.333333333333</v>
       </c>
       <c r="G3" s="4">
@@ -587,11 +2361,11 @@
         <v>57</v>
       </c>
       <c r="F4" s="6">
-        <f>B4/12</f>
+        <f t="shared" si="0"/>
         <v>8559.4166666666661</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G11" si="0">E4/D4*100</f>
+        <f t="shared" ref="G4:G11" si="1">E4/D4*100</f>
         <v>24.568965517241377</v>
       </c>
     </row>
@@ -612,11 +2386,11 @@
         <v>56</v>
       </c>
       <c r="F5" s="6">
-        <f>B5/12</f>
+        <f t="shared" si="0"/>
         <v>6403</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.512195121951219</v>
       </c>
     </row>
@@ -637,11 +2411,11 @@
         <v>124</v>
       </c>
       <c r="F6" s="6">
-        <f>B6/12</f>
+        <f t="shared" si="0"/>
         <v>6502.083333333333</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.30612244897959</v>
       </c>
     </row>
@@ -662,11 +2436,11 @@
         <v>57</v>
       </c>
       <c r="F7" s="6">
-        <f>B7/12</f>
+        <f t="shared" si="0"/>
         <v>7026.25</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.568965517241377</v>
       </c>
     </row>
@@ -687,11 +2461,11 @@
         <v>104</v>
       </c>
       <c r="F8" s="6">
-        <f>B8/12</f>
+        <f t="shared" si="0"/>
         <v>6679.75</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.799426934097422</v>
       </c>
     </row>
@@ -712,11 +2486,11 @@
         <v>64</v>
       </c>
       <c r="F9" s="6">
-        <f>B9/12</f>
+        <f t="shared" si="0"/>
         <v>6637</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.296442687747035</v>
       </c>
     </row>
@@ -737,11 +2511,11 @@
         <v>70</v>
       </c>
       <c r="F10" s="6">
-        <f>B10/12</f>
+        <f t="shared" si="0"/>
         <v>5142.5</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.411764705882355</v>
       </c>
     </row>
@@ -762,16 +2536,37 @@
         <v>21</v>
       </c>
       <c r="F11" s="6">
-        <f>B11/12</f>
+        <f t="shared" si="0"/>
         <v>5506.416666666667</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.595505617977526</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
+        <f>D3+D4+D5+D6+D7+D8+D9+D10+D11</f>
+        <v>2659</v>
+      </c>
+      <c r="E12" s="8">
+        <f>E3+E4+E5+E6+E7+E8+E9+E10+E11</f>
+        <v>676</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>